--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1029,6 +1029,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1446,7 +1447,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1596,7 +1597,7 @@
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -1613,8 +1614,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>12</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="19">
         <v>3</v>
@@ -1633,8 +1634,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>13</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="19">
         <v>3</v>
@@ -1650,8 +1651,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>14</v>
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="19">
         <v>3</v>
@@ -1667,8 +1668,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>18</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="19">
         <v>4</v>
@@ -1687,8 +1688,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>19</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="19">
         <v>4</v>
@@ -1704,8 +1705,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>20</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="19">
         <v>4</v>
@@ -1721,8 +1722,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>21</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="19">
         <v>5</v>
@@ -1741,8 +1742,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>22</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="19">
         <v>5</v>
@@ -1759,8 +1760,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>25</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="19">
         <v>5</v>
@@ -1777,8 +1778,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>26</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="19">
         <v>5</v>
@@ -1795,8 +1796,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>29</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="19">
         <v>6</v>
@@ -1815,8 +1816,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>30</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="19">
         <v>6</v>
@@ -1832,8 +1833,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>32</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="19">
         <v>6</v>
@@ -1850,8 +1851,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>33</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="19">
         <v>7</v>
@@ -1870,8 +1871,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>34</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="19">
         <v>7</v>
@@ -1888,8 +1889,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>37</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="19">
         <v>7</v>
@@ -1906,8 +1907,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>38</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="19">
         <v>8</v>
@@ -1926,8 +1927,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>39</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="19">
         <v>8</v>
@@ -1944,8 +1945,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
-        <v>42</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="19">
         <v>8</v>
@@ -1962,8 +1963,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>43</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="19">
         <v>9</v>
@@ -1982,8 +1983,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>44</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="19">
         <v>9</v>
@@ -2000,8 +2001,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
-        <v>47</v>
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
       <c r="B30" s="19">
         <v>9</v>
@@ -2018,8 +2019,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>48</v>
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
       <c r="B31" s="19">
         <v>10</v>
@@ -2038,8 +2039,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
-        <v>49</v>
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
       <c r="B32" s="19">
         <v>10</v>
@@ -2056,8 +2057,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
-        <v>52</v>
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
       <c r="B33" s="19">
         <v>10</v>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="223">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -131,22 +131,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>isreal|是否是实物奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -393,42 +377,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"1.66万鲸币","千元赛门票*1","记牌器*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3.66万鲸币","千元赛门票*1","记牌器*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6.66万鲸币","千元赛门票*1","记牌器*2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12.66万鲸币","千元赛门票*1","记牌器*2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"16.66万鲸币","千元赛门票*1","记牌器*3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"18.66万鲸币","千元赛门票*1","记牌器*3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"28.66万鲸币","千元赛门票*1","记牌器*4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"38.66万鲸币","千元赛门票*1","记牌器*4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"48.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>vip|Vip等级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -629,30 +577,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"58.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"78.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"68.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小米空气净化器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -665,26 +589,6 @@
   </si>
   <si>
     <t>activity_icon_gift162_kt</t>
-  </si>
-  <si>
-    <t>"3万鱼币","太阳*6","千元赛门票*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6.6万鱼币","太阳*10","千元赛门票*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","com_award_icon_qys"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","com_award_icon_qys"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1万鱼币","太阳*2","千元赛门票*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
@@ -949,6 +853,61 @@
   <si>
     <t>3、享受vip9所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","太阳*6","锁定*1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*10","锁定*1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_sd"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*2","锁定*1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"3.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"6.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"12.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"16.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"18.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"28.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"38.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"48.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"58.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"68.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"78.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,10 +1421,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1474,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,16 +1450,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,14 +1470,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,14 +1488,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,14 +1506,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1568,13 +1527,13 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1588,11 +1547,11 @@
         <v>200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1606,11 +1565,11 @@
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,13 +1583,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1603,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1661,10 +1620,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1678,13 +1637,13 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,10 +1657,10 @@
         <v>1000</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1715,10 +1674,10 @@
         <v>1000</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,13 +1691,13 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,11 +1711,11 @@
         <v>2000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E16" s="22"/>
       <c r="G16" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1770,11 +1729,11 @@
         <v>2000</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E17" s="21"/>
       <c r="G17" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1788,11 +1747,11 @@
         <v>2000</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1806,13 +1765,13 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1826,10 +1785,10 @@
         <v>5000</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1843,11 +1802,11 @@
         <v>5000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1861,13 +1820,13 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1881,11 +1840,11 @@
         <v>10000</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1899,11 +1858,11 @@
         <v>10000</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E24" s="21"/>
       <c r="G24" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1917,13 +1876,13 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1937,11 +1896,11 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1955,11 +1914,11 @@
         <v>20000</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1973,13 +1932,13 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1993,11 +1952,11 @@
         <v>30000</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2011,11 +1970,11 @@
         <v>30000</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2029,13 +1988,13 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2049,11 +2008,11 @@
         <v>50000</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2067,11 +2026,11 @@
         <v>50000</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2101,7 +2060,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2113,16 +2072,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2089,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2103,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2117,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2286,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2409,10 +2368,10 @@
         <v>21016</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2423,10 +2382,10 @@
         <v>21017</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,10 +2396,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,10 +2410,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2465,10 +2424,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,10 +2438,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2493,10 +2452,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,10 +2466,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2521,10 +2480,10 @@
         <v>21314</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2535,10 +2494,10 @@
         <v>21315</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2717,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2744,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,10 +2714,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,10 +2736,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,10 +2758,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,10 +2769,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,10 +2791,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,10 +2802,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,10 +2824,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2904,10 +2863,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8">
         <v>1000000</v>
@@ -2932,10 +2891,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8">
         <v>2000000</v>
@@ -2949,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>5000000</v>
@@ -2966,13 +2925,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2983,13 +2942,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3000,10 +2959,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8">
         <v>50000000</v>
@@ -3017,10 +2976,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8">
         <v>100000000</v>
@@ -3034,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3051,13 +3010,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3068,10 +3027,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8">
         <v>1000000000</v>
@@ -3085,10 +3044,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8">
         <v>2000000000</v>
@@ -3102,10 +3061,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8">
         <v>5000000000</v>
@@ -3119,10 +3078,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -3136,10 +3095,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3153,10 +3112,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3202,13 +3161,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3216,13 +3175,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3233,13 +3192,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3250,13 +3209,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3267,13 +3226,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3284,13 +3243,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3301,13 +3260,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3318,13 +3277,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3335,13 +3294,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3352,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3369,13 +3328,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3386,13 +3345,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3403,13 +3362,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3420,13 +3379,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3437,10 +3396,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3454,10 +3413,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3466,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3506,13 +3465,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,13 +3479,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3537,13 +3496,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3554,13 +3513,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3571,13 +3530,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3588,13 +3547,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3605,13 +3564,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3622,13 +3581,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3639,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3656,13 +3615,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3673,13 +3632,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3690,13 +3649,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3707,13 +3666,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3724,13 +3683,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3741,13 +3700,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3758,10 +3717,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3770,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -3809,7 +3768,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -3818,13 +3777,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3832,13 +3791,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3846,13 +3805,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,13 +3819,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3874,13 +3833,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3888,13 +3847,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3902,13 +3861,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,13 +3875,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="yjtz_new|新版赢金挑战" sheetId="15" r:id="rId7"/>
     <sheet name="yjtz_three|赢金挑战三期" sheetId="16" r:id="rId8"/>
     <sheet name="qys|千元赛" sheetId="12" r:id="rId9"/>
+    <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="249">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -908,6 +909,110 @@
   </si>
   <si>
     <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title|名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_img|图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_txt|描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP1礼包(购买条件:VIP等级≥1)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yubi","com_award_icon_yubi","com_award_icon_yubi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","40","40",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","68","60",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","88","80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","110","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","148","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","158","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP2礼包(购买条件:VIP等级≥2)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP3礼包(购买条件:VIP等级≥3)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP4礼包(购买条件:VIP等级≥4)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP5礼包(购买条件:VIP等级≥5)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP6礼包(购买条件:VIP等级≥6)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP7礼包(购买条件:VIP等级≥7)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP8礼包(购买条件:VIP等级≥8)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP9礼包(购买条件:VIP等级≥9)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP10礼包(购买条件:VIP等级≥10)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1055,7 +1160,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1230,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2055,6 +2163,249 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10244</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10245</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10246</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10247</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10248</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6">
+        <v>198</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10249</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7">
+        <v>298</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10250</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8">
+        <v>398</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10251</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9">
+        <v>498</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10252</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10">
+        <v>598</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10253</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11">
+        <v>698</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
@@ -2676,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3747,7 +4098,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -931,10 +931,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"VIP1礼包(购买条件:VIP等级≥1)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"com_award_icon_yubi","com_award_icon_yubi","com_award_icon_yubi",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -979,39 +975,37 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"VIP2礼包(购买条件:VIP等级≥2)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP3礼包(购买条件:VIP等级≥3)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP4礼包(购买条件:VIP等级≥4)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP5礼包(购买条件:VIP等级≥5)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP6礼包(购买条件:VIP等级≥6)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP7礼包(购买条件:VIP等级≥7)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP8礼包(购买条件:VIP等级≥8)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP9礼包(购买条件:VIP等级≥9)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP10礼包(购买条件:VIP等级≥10)",</t>
+    <t>"VIP1礼包","(购买条件:VIP等级≥1)",</t>
+  </si>
+  <si>
+    <t>"VIP2礼包","(购买条件:VIP等级≥2)",</t>
+  </si>
+  <si>
+    <t>"VIP3礼包","(购买条件:VIP等级≥3)",</t>
+  </si>
+  <si>
+    <t>"VIP4礼包","(购买条件:VIP等级≥4)",</t>
+  </si>
+  <si>
+    <t>"VIP5礼包","(购买条件:VIP等级≥5)",</t>
+  </si>
+  <si>
+    <t>"VIP6礼包","(购买条件:VIP等级≥6)",</t>
+  </si>
+  <si>
+    <t>"VIP7礼包","(购买条件:VIP等级≥7)",</t>
+  </si>
+  <si>
+    <t>"VIP8礼包","(购买条件:VIP等级≥8)",</t>
+  </si>
+  <si>
+    <t>"VIP9礼包","(购买条件:VIP等级≥9)",</t>
+  </si>
+  <si>
+    <t>"VIP10礼包","(购买条件:VIP等级≥10)",</t>
+  </si>
+  <si>
+    <t>origin_price|价格</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2165,22 +2159,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -2191,16 +2186,19 @@
         <v>224</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2208,19 +2206,20 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2230,17 +2229,18 @@
       <c r="C3" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17"/>
+      <c r="E3">
         <v>28</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>229</v>
-      </c>
       <c r="F3" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2250,17 +2250,18 @@
       <c r="C4" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17"/>
+      <c r="E4">
         <v>48</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>229</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2270,17 +2271,18 @@
       <c r="C5" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17"/>
+      <c r="E5">
         <v>99</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2290,17 +2292,18 @@
       <c r="C6" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17"/>
+      <c r="E6">
         <v>198</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2310,17 +2313,18 @@
       <c r="C7" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17"/>
+      <c r="E7">
         <v>298</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2330,17 +2334,18 @@
       <c r="C8" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17"/>
+      <c r="E8">
         <v>398</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2350,17 +2355,18 @@
       <c r="C9" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17"/>
+      <c r="E9">
         <v>498</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2370,17 +2376,18 @@
       <c r="C10" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17"/>
+      <c r="E10">
         <v>598</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2390,14 +2397,15 @@
       <c r="C11" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17"/>
+      <c r="E11">
         <v>698</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>239</v>
+      <c r="F11" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -931,10 +931,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"com_award_icon_yubi","com_award_icon_yubi","com_award_icon_yubi",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"75万","1","1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1006,6 +1002,38 @@
   </si>
   <si>
     <t>origin_price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2162,7 +2190,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,7 +2214,7 @@
         <v>224</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>225</v>
@@ -2206,17 +2234,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2227,17 +2255,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2248,17 +2276,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2269,17 +2297,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2290,17 +2318,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2311,17 +2339,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2332,17 +2360,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2353,17 +2381,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2374,17 +2402,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2395,17 +2423,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2569,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2850,7 +2878,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>21315</v>
+        <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>146</v>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -832,10 +832,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;2000万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip7所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1035,6 +1031,10 @@
   <si>
     <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2026,7 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="E26" s="22"/>
       <c r="G26" s="21" t="s">
@@ -2044,7 +2044,7 @@
         <v>20000</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -2082,7 +2082,7 @@
         <v>30000</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="21" t="s">
@@ -2100,7 +2100,7 @@
         <v>30000</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -2138,7 +2138,7 @@
         <v>50000</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="19" t="s">
@@ -2156,7 +2156,7 @@
         <v>50000</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -2189,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2208,22 +2208,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2234,17 +2234,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,17 +2255,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2276,17 +2276,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2297,17 +2297,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2318,17 +2318,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2339,17 +2339,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2360,17 +2360,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,17 +2381,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2402,17 +2402,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2423,17 +2423,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>143</v>
@@ -2490,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -2504,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -3090,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3101,10 +3101,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3112,10 +3112,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3123,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3134,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3156,10 +3156,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3167,10 +3167,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3178,10 +3178,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3189,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3200,10 +3200,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3211,10 +3211,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"xycj","panel"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4、享受vip专享福利</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1035,6 +1031,9 @@
   </si>
   <si>
     <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
   </si>
 </sst>
 </file>
@@ -1535,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1553,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1566,10 +1565,10 @@
         <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1583,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1603,11 +1602,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,11 +1620,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1639,11 +1638,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,13 +1656,13 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,11 +1676,11 @@
         <v>200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1695,11 +1694,11 @@
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,13 +1712,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1733,10 +1732,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1750,10 +1749,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,13 +1766,13 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,10 +1786,10 @@
         <v>1000</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1804,10 +1803,10 @@
         <v>1000</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,13 +1820,13 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1841,11 +1840,11 @@
         <v>2000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="22"/>
       <c r="G16" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1859,11 +1858,11 @@
         <v>2000</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="21"/>
       <c r="G17" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1877,11 +1876,11 @@
         <v>2000</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1895,13 +1894,13 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1915,10 +1914,10 @@
         <v>5000</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1932,11 +1931,11 @@
         <v>5000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1950,13 +1949,13 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1970,11 +1969,11 @@
         <v>10000</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1988,11 +1987,11 @@
         <v>10000</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="21"/>
       <c r="G24" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2006,13 +2005,13 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2026,11 +2025,11 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2044,11 +2043,11 @@
         <v>20000</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2062,13 +2061,13 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2082,11 +2081,11 @@
         <v>30000</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2100,11 +2099,11 @@
         <v>30000</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2118,13 +2117,13 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2138,11 +2137,11 @@
         <v>50000</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2156,11 +2155,11 @@
         <v>50000</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2189,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2208,22 +2207,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2234,17 +2233,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,17 +2254,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2276,17 +2275,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2297,17 +2296,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2318,17 +2317,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2339,17 +2338,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2360,17 +2359,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,17 +2380,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2402,17 +2401,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2423,17 +2422,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2476,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -2504,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -2632,7 +2631,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2783,10 +2782,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2797,10 +2796,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,10 +2810,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2825,10 +2824,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,10 +2838,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2853,10 +2852,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2870,7 +2869,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2881,10 +2880,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3090,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3101,10 +3100,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3112,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3123,10 +3122,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3134,10 +3133,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,10 +3144,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3156,10 +3155,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3167,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3178,10 +3177,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3189,10 +3188,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3200,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3211,10 +3210,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3467,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -3548,13 +3547,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3568,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3582,10 +3581,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3599,10 +3598,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3616,10 +3615,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3633,10 +3632,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3650,10 +3649,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3667,10 +3666,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3684,10 +3683,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3701,10 +3700,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3715,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3732,13 +3731,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3749,13 +3748,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3766,13 +3765,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3783,10 +3782,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3800,10 +3799,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3812,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3858,7 +3857,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3869,10 +3868,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3886,10 +3885,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3903,10 +3902,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3920,10 +3919,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3937,10 +3936,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3954,10 +3953,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3971,7 +3970,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -3988,10 +3987,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4005,10 +4004,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4019,13 +4018,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4036,13 +4035,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4053,13 +4052,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4070,13 +4069,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4087,13 +4086,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4104,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4116,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="300">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -383,18 +383,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;2次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>8000鲸币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -758,10 +746,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1.游戏内带有超值标签的礼包不计入vip累计金额;\n2.福利券超出容量后会自动转换为金币。</t>
   </si>
   <si>
@@ -769,10 +753,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip2所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -781,30 +761,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;8万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;2万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;20万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;40万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;60万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、畅玩所有游戏</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -813,18 +769,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;80万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip5所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip6所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -833,371 +781,418 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip8所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip9所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"30万鱼币","太阳*6","锁定*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万鱼币","太阳*10","锁定*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_sd"</t>
+    <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"3.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"6.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"12.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"16.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"18.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"28.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"38.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"48.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"58.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"68.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"78.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title|名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_img|图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_txt|描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","40","40",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","68","60",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","88","80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","110","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","148","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","158","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP1礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥1&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP2礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥2&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP3礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥3&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP4礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥4&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP5礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥5&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP6礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥6&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP7礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥7&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP8礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥8&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP9礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥9&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+  </si>
+  <si>
+    <t>task_id|任务ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title|描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_img|奖励图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_txt|奖励文字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有200万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有500万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有1000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有2000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有5000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有1亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有2亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有5亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有10亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有20亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有30亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有50亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8万金币","锁定*1","冰冻*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"18万金币","锁定*1","冰冻*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"28万金币","锁定*1","冰冻*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"38万金币","锁定*2","冰冻*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","锁定*2","冰冻*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"88万金币","锁定*2","冰冻*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"128万金币","锁定*3","冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"188万金币","锁定*3","冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"288万金币","锁定*3","冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","锁定*5","冰冻*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"588万金币","锁定*5","冰冻*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"388万金币","锁定*5","冰冻*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"10万鱼币","太阳*2","锁定*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
-  </si>
-  <si>
-    <t>"3.66万鲸币","锁定*1","记牌器*1"</t>
-  </si>
-  <si>
-    <t>"6.66万鲸币","锁定*1","记牌器*2"</t>
-  </si>
-  <si>
-    <t>"12.66万鲸币","锁定*1","记牌器*2"</t>
-  </si>
-  <si>
-    <t>"16.66万鲸币","锁定*1","记牌器*3"</t>
-  </si>
-  <si>
-    <t>"18.66万鲸币","锁定*1","记牌器*3"</t>
-  </si>
-  <si>
-    <t>"28.66万鲸币","锁定*1","记牌器*4"</t>
-  </si>
-  <si>
-    <t>"38.66万鲸币","锁定*1","记牌器*4"</t>
-  </si>
-  <si>
-    <t>"48.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"58.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"68.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"78.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
-  </si>
-  <si>
-    <t>gift_id|礼包ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>title|名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_img|图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_txt|描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"75万","1","1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万","5","5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万","10","10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万","20","20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万","40","40",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万","68","60",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万","88","80",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万","110","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万","148","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万","158","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin_price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP1礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥1&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP2礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥2&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP3礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥3&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP4礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥4&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP5礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥5&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP6礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥6&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP7礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥7&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP8礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥8&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP9礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥9&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel"</t>
-  </si>
-  <si>
-    <t>task_id|任务ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>title|描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>confition|进度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_img|奖励图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_txt|奖励文字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有200万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有500万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有1000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有2000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有5000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有1亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有2亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有5亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有10亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有20亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有30亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上拥有50亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_18y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_998y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_2498y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"8万金币","锁定*1","冰冻*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"18万金币","锁定*1","冰冻*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"28万金币","锁定*1","冰冻*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"38万金币","锁定*2","冰冻*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"48万金币","锁定*2","冰冻*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"88万金币","锁定*2","冰冻*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"128万金币","锁定*3","冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"188万金币","锁定*3","冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"288万金币","锁定*3","冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","锁定*5","冰冻*5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"588万金币","锁定*5","冰冻*5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"388万金币","锁定*5","冰冻*5",</t>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*2","召唤*10"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","太阳*6","召唤*10"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*10","召唤*10"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;2次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;2万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>3、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;8万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;20万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;40万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;60万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;80万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>condition|进度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_progress_lv|奖励阶段等级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1699,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1728,7 @@
         <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1747,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,11 +1762,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1785,11 +1780,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1807,7 +1802,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1821,13 +1816,13 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1841,11 +1836,11 @@
         <v>200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,11 +1854,11 @@
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,13 +1872,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,10 +1892,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,10 +1909,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1931,13 +1926,13 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,10 +1946,10 @@
         <v>1000</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,10 +1963,10 @@
         <v>1000</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,13 +1980,13 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,11 +2000,11 @@
         <v>2000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="E16" s="22"/>
       <c r="G16" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2023,11 +2018,11 @@
         <v>2000</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E17" s="21"/>
       <c r="G17" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2041,11 +2036,11 @@
         <v>2000</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2059,13 +2054,13 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2079,10 +2074,10 @@
         <v>5000</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2096,11 +2091,11 @@
         <v>5000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2114,13 +2109,13 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2134,11 +2129,11 @@
         <v>10000</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2152,11 +2147,11 @@
         <v>10000</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E24" s="21"/>
       <c r="G24" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2170,13 +2165,13 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2190,11 +2185,11 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="E26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2208,11 +2203,11 @@
         <v>20000</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2226,13 +2221,13 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2246,11 +2241,11 @@
         <v>30000</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2264,11 +2259,11 @@
         <v>30000</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2282,13 +2277,13 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2302,11 +2297,11 @@
         <v>50000</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2320,11 +2315,11 @@
         <v>50000</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2372,22 +2367,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2398,17 +2393,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2419,17 +2414,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2440,17 +2435,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,17 +2456,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2482,17 +2477,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2503,17 +2498,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,17 +2519,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2545,17 +2540,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,17 +2561,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2587,17 +2582,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2608,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2620,29 +2615,33 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2650,19 +2649,22 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2670,19 +2672,22 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2690,19 +2695,22 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2710,19 +2718,22 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2730,19 +2741,22 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2750,19 +2764,22 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2770,19 +2787,22 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2790,19 +2810,22 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2810,19 +2833,22 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2830,19 +2856,22 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2850,19 +2879,22 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2870,16 +2902,19 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>296</v>
+        <v>274</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2892,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2922,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2936,10 +2971,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -2950,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -3078,7 +3113,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3229,10 +3264,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3243,10 +3278,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3257,10 +3292,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3271,10 +3306,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3285,10 +3320,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3299,10 +3334,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3316,7 +3351,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,10 +3362,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3536,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3547,10 +3582,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3558,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3569,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3580,10 +3615,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3591,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3602,10 +3637,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3613,10 +3648,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3624,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3635,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3646,10 +3681,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3657,10 +3692,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3994,13 +4029,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4014,7 +4049,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4028,10 +4063,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4045,10 +4080,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4062,10 +4097,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4079,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4096,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4113,10 +4148,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4130,10 +4165,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4147,10 +4182,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4161,13 +4196,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4178,13 +4213,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4195,13 +4230,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4212,13 +4247,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4229,10 +4264,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -4246,10 +4281,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4258,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -4304,7 +4339,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4315,10 +4350,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4332,10 +4367,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4349,10 +4384,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4366,10 +4401,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4383,10 +4418,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4400,10 +4435,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4417,7 +4452,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -4434,10 +4469,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4451,10 +4486,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4465,13 +4500,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4482,13 +4517,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4499,13 +4534,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4516,13 +4551,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4533,13 +4568,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4550,10 +4585,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4562,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -367,10 +367,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>4、享受vip专享福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>华为荣耀平板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1137,15 +1133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;2次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;2万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>3、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
-  </si>
-  <si>
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
   </si>
   <si>
@@ -1194,6 +1181,26 @@
   <si>
     <t>award_progress_lv|奖励阶段等级</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、福利券容量提升为&lt;color=#DA2020&gt;2万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、享受vip专享福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhfl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富豪福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1692,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1720,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1725,10 +1732,10 @@
         <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1742,16 +1749,14 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1761,12 +1766,12 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="G3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,32 +1785,34 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>298</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1816,13 +1823,11 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>177</v>
+        <v>281</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="G6" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,30 +1840,32 @@
       <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="D7" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>177</v>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>500</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1872,13 +1879,10 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>177</v>
+        <v>283</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,11 +1895,11 @@
       <c r="C10" s="19">
         <v>500</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>177</v>
+      <c r="D10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1903,16 +1907,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="19">
-        <v>500</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>179</v>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1926,13 +1933,10 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1945,11 +1949,11 @@
       <c r="C13" s="19">
         <v>1000</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>289</v>
+      <c r="D13" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,16 +1961,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>177</v>
+        <v>2000</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1980,16 +1987,14 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="G15" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1999,12 +2004,12 @@
       <c r="C16" s="19">
         <v>2000</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="G16" s="21" t="s">
-        <v>177</v>
+      <c r="D16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="G16" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2021,8 +2026,8 @@
         <v>181</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="G17" s="19" t="s">
-        <v>177</v>
+      <c r="G17" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2030,17 +2035,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="G18" s="21" t="s">
-        <v>177</v>
+        <v>5000</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2054,13 +2061,10 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>177</v>
+        <v>289</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2073,11 +2077,12 @@
       <c r="C20" s="19">
         <v>5000</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>293</v>
-      </c>
+      <c r="D20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2085,17 +2090,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="G21" s="21" t="s">
-        <v>177</v>
+        <v>10000</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2109,13 +2116,11 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>177</v>
+        <v>290</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="G22" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2128,12 +2133,12 @@
       <c r="C23" s="19">
         <v>10000</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="G23" s="21" t="s">
-        <v>177</v>
+      <c r="D23" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="G23" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2141,17 +2146,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="G24" s="19" t="s">
-        <v>177</v>
+        <v>20000</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2165,13 +2172,11 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="G25" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2184,12 +2189,12 @@
       <c r="C26" s="19">
         <v>20000</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="D26" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2197,17 +2202,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="21"/>
+        <v>30000</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="G27" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2223,11 +2230,9 @@
       <c r="D28" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>235</v>
-      </c>
+      <c r="E28" s="22"/>
       <c r="G28" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2240,12 +2245,12 @@
       <c r="C29" s="19">
         <v>30000</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="D29" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2253,17 +2258,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="21"/>
+        <v>50000</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="G30" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2277,13 +2284,11 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>177</v>
+        <v>293</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="G31" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2296,46 +2301,28 @@
       <c r="C32" s="19">
         <v>50000</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="G32" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="19">
-        <v>10</v>
-      </c>
-      <c r="C33" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2367,22 +2354,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2393,17 +2380,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2414,17 +2401,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2435,17 +2422,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2456,17 +2443,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2477,17 +2464,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2498,17 +2485,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2519,17 +2506,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2540,17 +2527,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2561,17 +2548,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2582,17 +2569,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2605,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2623,22 +2610,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2649,16 +2636,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2672,16 +2659,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2695,16 +2682,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2718,16 +2705,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2741,16 +2728,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2764,16 +2751,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2787,16 +2774,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2810,16 +2797,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -2833,16 +2820,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -2856,16 +2843,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -2879,16 +2866,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -2902,16 +2889,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -2957,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,10 +2958,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -2985,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -3047,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3113,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3264,10 +3251,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3278,10 +3265,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3292,10 +3279,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3306,10 +3293,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3320,10 +3307,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3334,10 +3321,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3351,7 +3338,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3362,10 +3349,24 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21341</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3571,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,10 +3583,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3593,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3604,10 +3605,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3615,10 +3616,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3626,10 +3627,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3637,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3659,10 +3660,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3670,10 +3671,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3681,10 +3682,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3692,10 +3693,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3949,7 +3950,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -4029,13 +4030,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4049,7 +4050,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4063,10 +4064,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4080,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4097,10 +4098,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4114,10 +4115,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4131,10 +4132,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4148,10 +4149,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4165,10 +4166,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4182,10 +4183,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4196,13 +4197,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4213,13 +4214,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4230,13 +4231,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4247,13 +4248,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4264,10 +4265,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -4281,10 +4282,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4293,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4340,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4350,10 +4351,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4367,10 +4368,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4384,10 +4385,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4401,10 +4402,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,10 +4419,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4435,10 +4436,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4452,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -4469,10 +4470,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4486,10 +4487,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4500,13 +4501,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4517,13 +4518,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4534,13 +4535,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4551,13 +4552,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4568,13 +4569,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4585,10 +4586,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4597,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,28 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
-    <sheet name="dangci_cjj|档次" sheetId="19" r:id="rId2"/>
-    <sheet name="vipmzfl|VIP每周福利" sheetId="14" r:id="rId3"/>
-    <sheet name="task|任务" sheetId="8" r:id="rId4"/>
-    <sheet name="level|等级图标" sheetId="9" r:id="rId5"/>
-    <sheet name="lb|礼包" sheetId="10" r:id="rId6"/>
-    <sheet name="yjtz|赢金挑战" sheetId="11" r:id="rId7"/>
-    <sheet name="yjtz_new|新版赢金挑战" sheetId="15" r:id="rId8"/>
-    <sheet name="yjtz_three|赢金挑战三期" sheetId="16" r:id="rId9"/>
-    <sheet name="qys|千元赛" sheetId="12" r:id="rId10"/>
-    <sheet name="gift|VIP礼包" sheetId="17" r:id="rId11"/>
-    <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId12"/>
+    <sheet name="vipmzfl|VIP每周福利" sheetId="14" r:id="rId2"/>
+    <sheet name="task|任务" sheetId="8" r:id="rId3"/>
+    <sheet name="level|等级图标" sheetId="9" r:id="rId4"/>
+    <sheet name="lb|礼包" sheetId="10" r:id="rId5"/>
+    <sheet name="yjtz|赢金挑战" sheetId="11" r:id="rId6"/>
+    <sheet name="yjtz_new|新版赢金挑战" sheetId="15" r:id="rId7"/>
+    <sheet name="yjtz_three|赢金挑战三期" sheetId="16" r:id="rId8"/>
+    <sheet name="qys|千元赛" sheetId="12" r:id="rId9"/>
+    <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
+    <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="319">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -524,10 +523,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>help|帮助</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>vip11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -743,49 +738,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.游戏内带有超值标签的礼包不计入vip累计金额;\n2.福利券超出容量后会自动转换为金币。</t>
-  </si>
-  <si>
-    <t>3、享受vip1所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip2所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip3所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、畅玩所有游戏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、享受vip4所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip5所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip6所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip7所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip8所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip9所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
   </si>
   <si>
@@ -1134,33 +1086,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>condition|进度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1169,14 +1094,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip专享福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fhfl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1185,123 +1102,163 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛10次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛7次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛4次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛5次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛6次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛9次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛11次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛12次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛15次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、福利券容量提升为&lt;color=#FFEF39&gt;5000福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、享受兑换商城商品&lt;color=#FFEF39&gt;99%&lt;/color&gt;兑换权</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFEF39&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;4万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFEF39&gt;10次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;10万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFEF39&gt;20次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;15万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFEF39&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;30万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFEF39&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;50万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#FFEF39&gt;500万福利券&lt;/color&gt;</t>
+    <t>享受vip专享福利</t>
+  </si>
+  <si>
+    <t>享受vip1所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip2所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip3所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>畅玩所有游戏</t>
+  </si>
+  <si>
+    <t>享受vip4所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip5所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip6所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip7所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip8所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip9所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛4次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛5次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛6次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛7次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛9次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛10次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛11次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛12次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛15次</t>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛8次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,12 +1333,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1816,18 +1767,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="90.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="81.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -1840,17 +1789,17 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1863,13 +1812,10 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E2" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1881,13 +1827,10 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1899,13 +1842,10 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E4" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1917,13 +1857,13 @@
       <c r="C5" s="25">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="G5" s="27" t="s">
-        <v>176</v>
-      </c>
+      <c r="D5" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1935,14 +1875,14 @@
       <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>176</v>
+      <c r="D6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,13 +1895,10 @@
       <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E7" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1973,13 +1910,10 @@
       <c r="C8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1991,13 +1925,13 @@
       <c r="C9" s="25">
         <v>200</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="G9" s="27" t="s">
-        <v>176</v>
-      </c>
+      <c r="D9" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2009,14 +1943,14 @@
       <c r="C10" s="19">
         <v>500</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>176</v>
+      <c r="D10" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2029,11 +1963,8 @@
       <c r="C11" s="19">
         <v>500</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>176</v>
+      <c r="E11" s="15" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,11 +1977,8 @@
       <c r="C12" s="19">
         <v>500</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>176</v>
+      <c r="E12" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,13 +1991,13 @@
       <c r="C13" s="25">
         <v>500</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="G13" s="27" t="s">
-        <v>176</v>
-      </c>
+      <c r="D13" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2081,14 +2009,14 @@
       <c r="C14" s="19">
         <v>1000</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>176</v>
+      <c r="D14" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2101,11 +2029,8 @@
       <c r="C15" s="19">
         <v>1000</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>176</v>
+      <c r="E15" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,14 +2043,11 @@
       <c r="C16" s="19">
         <v>1000</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2135,15 +2057,15 @@
       <c r="C17" s="25">
         <v>1000</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="G17" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2153,17 +2075,17 @@
       <c r="C18" s="19">
         <v>2000</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2173,15 +2095,12 @@
       <c r="C19" s="19">
         <v>2000</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="G19" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2191,15 +2110,12 @@
       <c r="C20" s="19">
         <v>2000</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="G20" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2209,15 +2125,12 @@
       <c r="C21" s="19">
         <v>2000</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="G21" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2227,15 +2140,15 @@
       <c r="C22" s="25">
         <v>2000</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="G22" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2245,17 +2158,17 @@
       <c r="C23" s="19">
         <v>5000</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2265,14 +2178,11 @@
       <c r="C24" s="19">
         <v>5000</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2282,15 +2192,12 @@
       <c r="C25" s="19">
         <v>5000</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="G25" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2300,15 +2207,15 @@
       <c r="C26" s="25">
         <v>5000</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="G26" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2318,17 +2225,17 @@
       <c r="C27" s="19">
         <v>10000</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2338,15 +2245,12 @@
       <c r="C28" s="19">
         <v>10000</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="G28" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2356,15 +2260,12 @@
       <c r="C29" s="19">
         <v>10000</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="G29" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2374,15 +2275,15 @@
       <c r="C30" s="25">
         <v>10000</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="G30" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2392,17 +2293,17 @@
       <c r="C31" s="19">
         <v>20000</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2412,15 +2313,12 @@
       <c r="C32" s="19">
         <v>20000</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="G32" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2430,15 +2328,12 @@
       <c r="C33" s="19">
         <v>20000</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2448,15 +2343,15 @@
       <c r="C34" s="25">
         <v>20000</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="G34" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2466,17 +2361,17 @@
       <c r="C35" s="19">
         <v>30000</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2486,15 +2381,12 @@
       <c r="C36" s="19">
         <v>30000</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="G36" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2504,15 +2396,12 @@
       <c r="C37" s="19">
         <v>30000</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="G37" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2522,15 +2411,15 @@
       <c r="C38" s="25">
         <v>30000</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="G38" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2540,17 +2429,17 @@
       <c r="C39" s="19">
         <v>50000</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2560,15 +2449,12 @@
       <c r="C40" s="19">
         <v>50000</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="G40" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2578,15 +2464,12 @@
       <c r="C41" s="19">
         <v>50000</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="G41" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2596,25 +2479,25 @@
       <c r="C42" s="25">
         <v>50000</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="G42" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="12"/>
+      <c r="D42" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2624,154 +2507,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="45.125" customWidth="1"/>
-    <col min="3" max="3" width="77.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2794,22 +2529,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2820,17 +2555,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2841,17 +2576,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2862,17 +2597,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2883,17 +2618,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2904,17 +2639,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2925,17 +2660,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2946,17 +2681,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2967,17 +2702,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2988,17 +2723,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3009,17 +2744,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3028,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -3050,22 +2785,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3076,16 +2811,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3099,16 +2834,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3122,16 +2857,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>265</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3145,16 +2880,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3168,16 +2903,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3191,16 +2926,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3214,16 +2949,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3237,16 +2972,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3260,16 +2995,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3283,16 +3018,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3306,16 +3041,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3329,16 +3064,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3351,637 +3086,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="90.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="81.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="G6" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19">
-        <v>500</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19">
-        <v>500</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19">
-        <v>500</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19">
-        <v>4</v>
-      </c>
-      <c r="C12" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19">
-        <v>4</v>
-      </c>
-      <c r="C13" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19">
-        <v>5</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="G15" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19">
-        <v>5</v>
-      </c>
-      <c r="C16" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="G16" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19">
-        <v>6</v>
-      </c>
-      <c r="C18" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19">
-        <v>6</v>
-      </c>
-      <c r="C20" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="G20" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19">
-        <v>7</v>
-      </c>
-      <c r="C21" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19">
-        <v>7</v>
-      </c>
-      <c r="C22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="G22" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19">
-        <v>7</v>
-      </c>
-      <c r="C23" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="G23" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19">
-        <v>8</v>
-      </c>
-      <c r="C24" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19">
-        <v>8</v>
-      </c>
-      <c r="C25" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="19">
-        <v>8</v>
-      </c>
-      <c r="C26" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="G26" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19">
-        <v>9</v>
-      </c>
-      <c r="C27" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19">
-        <v>9</v>
-      </c>
-      <c r="C28" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="G28" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="19">
-        <v>9</v>
-      </c>
-      <c r="C29" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="G29" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19">
-        <v>10</v>
-      </c>
-      <c r="C30" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="19">
-        <v>10</v>
-      </c>
-      <c r="C31" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="G31" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="19">
-        <v>10</v>
-      </c>
-      <c r="C32" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="G32" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4015,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4029,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -4043,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -4103,7 +3207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -4350,10 +3454,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4364,10 +3468,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4378,10 +3482,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4392,10 +3496,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,7 +3513,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4420,10 +3524,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4434,10 +3538,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4447,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4612,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4643,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4654,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4665,10 +3769,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4676,10 +3780,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4687,10 +3791,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4698,10 +3802,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4709,10 +3813,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4720,10 +3824,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4731,10 +3835,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4742,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4753,10 +3857,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4764,10 +3868,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +3880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -5074,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -5121,7 +4225,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5319,10 +4423,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>110</v>
@@ -5336,10 +4440,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -5377,7 +4481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5422,10 +4526,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5439,10 +4543,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5456,10 +4560,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5473,10 +4577,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5490,10 +4594,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5507,10 +4611,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5524,7 +4628,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -5541,10 +4645,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5558,10 +4662,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5572,13 +4676,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5589,13 +4693,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5606,13 +4710,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5623,13 +4727,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5640,13 +4744,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5657,10 +4761,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -5680,4 +4784,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="45.125" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="321">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1251,6 +1251,14 @@
   </si>
   <si>
     <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1765,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1947,11 +1955,9 @@
         <v>315</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>222</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1963,8 +1969,14 @@
       <c r="C11" s="19">
         <v>500</v>
       </c>
+      <c r="D11" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E11" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1977,47 +1989,41 @@
       <c r="C12" s="19">
         <v>500</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="19">
         <v>500</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
-        <v>4</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B14" s="25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>500</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2029,8 +2035,14 @@
       <c r="C15" s="19">
         <v>1000</v>
       </c>
+      <c r="D15" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E15" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2043,47 +2055,41 @@
       <c r="C16" s="19">
         <v>1000</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="19">
         <v>1000</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B18" s="25">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2095,12 +2101,15 @@
       <c r="C19" s="19">
         <v>2000</v>
       </c>
+      <c r="D19" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E19" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2110,12 +2119,17 @@
       <c r="C20" s="19">
         <v>2000</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2125,62 +2139,58 @@
       <c r="C21" s="19">
         <v>2000</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="19">
         <v>5</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="19">
         <v>2000</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="F22" s="27"/>
+      <c r="E22" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
-        <v>6</v>
-      </c>
-      <c r="C24" s="19">
-        <v>5000</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>294</v>
-      </c>
+      <c r="B24" s="25">
+        <v>5</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2192,63 +2202,62 @@
       <c r="C25" s="19">
         <v>5000</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="19">
         <v>6</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="19">
         <v>5000</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="27"/>
+      <c r="E26" s="15" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
-        <v>7</v>
-      </c>
-      <c r="C28" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="22"/>
+      <c r="B28" s="25">
+        <v>6</v>
+      </c>
+      <c r="C28" s="25">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2260,63 +2269,63 @@
       <c r="C29" s="19">
         <v>10000</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="19">
         <v>7</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="19">
         <v>10000</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="F30" s="27"/>
+      <c r="E30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
-        <v>8</v>
-      </c>
-      <c r="C32" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F32" s="22"/>
+      <c r="B32" s="25">
+        <v>7</v>
+      </c>
+      <c r="C32" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2328,63 +2337,63 @@
       <c r="C33" s="19">
         <v>20000</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="19">
         <v>8</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="19">
         <v>20000</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="27"/>
+      <c r="E34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="19">
-        <v>9</v>
-      </c>
-      <c r="C36" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36" s="22"/>
+      <c r="B36" s="25">
+        <v>8</v>
+      </c>
+      <c r="C36" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -2396,63 +2405,63 @@
       <c r="C37" s="19">
         <v>30000</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="19">
         <v>9</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="19">
         <v>30000</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F38" s="27"/>
+      <c r="E38" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="19">
-        <v>10</v>
-      </c>
-      <c r="C40" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F40" s="22"/>
+      <c r="B40" s="25">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -2464,40 +2473,75 @@
       <c r="C41" s="19">
         <v>50000</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="19">
         <v>10</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="19">
         <v>50000</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="E42" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19">
+        <v>10</v>
+      </c>
+      <c r="C43" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="25">
+        <v>10</v>
+      </c>
+      <c r="C44" s="25">
+        <v>50000</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E44" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="12"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,15 @@
     <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$48</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="319">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1228,6 +1231,26 @@
   <si>
     <t>"318万","2","2",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1743,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1851,7 +1874,9 @@
       <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>266</v>
       </c>
@@ -1935,7 +1960,9 @@
       <c r="C11" s="19">
         <v>500</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>267</v>
       </c>
@@ -1999,7 +2026,9 @@
       <c r="C15" s="19">
         <v>1000</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>268</v>
       </c>
@@ -2081,7 +2110,9 @@
       <c r="C20" s="19">
         <v>2000</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>318</v>
+      </c>
       <c r="E20" s="15" t="s">
         <v>269</v>
       </c>
@@ -2162,7 +2193,9 @@
       <c r="C25" s="19">
         <v>5000</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E25" s="15" t="s">
         <v>270</v>
       </c>
@@ -2227,7 +2260,9 @@
       <c r="C29" s="19">
         <v>10000</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>317</v>
+      </c>
       <c r="E29" s="15" t="s">
         <v>270</v>
       </c>
@@ -2293,7 +2328,9 @@
       <c r="C33" s="19">
         <v>20000</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>316</v>
+      </c>
       <c r="E33" s="15" t="s">
         <v>270</v>
       </c>
@@ -2359,7 +2396,9 @@
       <c r="C37" s="19">
         <v>30000</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E37" s="23" t="s">
         <v>270</v>
       </c>
@@ -2425,12 +2464,14 @@
       <c r="C41" s="19">
         <v>50000</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E41" s="23" t="s">
         <v>270</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2494,6 +2535,7 @@
       <c r="E48" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E48"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -2061,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -5089,16 +5089,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
-    <col min="3" max="3" width="87.125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="41.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -4108,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4248,7 +4248,7 @@
         <v>344</v>
       </c>
       <c r="D5" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>295</v>
@@ -4364,7 +4364,7 @@
         <v>345</v>
       </c>
       <c r="D9" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>351</v>
@@ -5089,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -1138,10 +1138,6 @@
     <t>"30万鱼币","太阳*6","狂暴卡*10"</t>
   </si>
   <si>
-    <t>vip&lt;color=#e41a1a&gt;6，7&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1546,6 +1542,10 @@
   <si>
     <t>cfz|财富值</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip&lt;color=#e41a1a&gt;6&lt;/color&gt;-vip&lt;color=#e41a1a&gt;7&lt;/color&gt;福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2839,10 +2839,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2855,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2872,10 +2872,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2889,10 +2889,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2906,10 +2906,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2923,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2940,10 +2940,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2957,10 +2957,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2974,10 +2974,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -2991,10 +2991,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3008,10 +3008,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3025,10 +3025,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3042,10 +3042,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3318,16 +3318,16 @@
         <v>10411</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E12">
         <v>798</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3338,16 +3338,16 @@
         <v>10412</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13">
         <v>898</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>390</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3384,7 +3384,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3413,7 +3413,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3442,7 +3442,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3471,7 +3471,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3500,7 +3500,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3529,7 +3529,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3558,7 +3558,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3587,7 +3587,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3616,7 +3616,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3645,7 +3645,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3674,7 +3674,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3703,7 +3703,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3732,7 +3732,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3761,7 +3761,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3770,10 +3770,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3799,10 +3799,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3819,7 +3819,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3828,10 +3828,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3848,7 +3848,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3857,10 +3857,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3877,7 +3877,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3886,10 +3886,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3906,7 +3906,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3918,7 +3918,7 @@
         <v>270</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3935,7 +3935,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3947,7 +3947,7 @@
         <v>271</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3964,7 +3964,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -3976,7 +3976,7 @@
         <v>272</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -3993,7 +3993,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4005,7 +4005,7 @@
         <v>273</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4022,7 +4022,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4031,10 +4031,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4051,7 +4051,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4060,10 +4060,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4080,7 +4080,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4089,10 +4089,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4109,7 +4109,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4126,13 +4126,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4144,10 +4144,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4158,25 +4158,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4187,25 +4187,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>288</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4216,25 +4216,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4245,25 +4245,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4274,25 +4274,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4303,25 +4303,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4332,25 +4332,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4361,25 +4361,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4761,7 +4761,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4926,7 +4926,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5123,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5140,13 +5140,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5174,13 +5174,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5191,10 +5191,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5208,13 +5208,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5225,13 +5225,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5242,13 +5242,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5259,13 +5259,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5279,10 +5279,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5296,10 +5296,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5313,10 +5313,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5330,10 +5330,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5347,10 +5347,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5364,10 +5364,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="395">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1359,26 +1359,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"10万小游戏币","太阳*2","铜锤*1"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万小游戏币","太阳*6","铜锤*2"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万小游戏币","太阳*10","铜锤*3"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"100万鱼币","太阳*15","狂暴卡*20"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"100万小游戏币","太阳*15","铜锤*5"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_yxb_2","zpg_icon_yg","com_award_icon_cz2"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1546,6 +1530,21 @@
   <si>
     <t>vip&lt;color=#e41a1a&gt;6&lt;/color&gt;-vip&lt;color=#e41a1a&gt;7&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万小游戏币","太阳*2","木锤*1"</t>
+  </si>
+  <si>
+    <t>"30万小游戏币","太阳*6","木锤*2"</t>
+  </si>
+  <si>
+    <t>"66万小游戏币","太阳*10","木锤*3"</t>
+  </si>
+  <si>
+    <t>"100万小游戏币","太阳*15","木锤*5"</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2839,10 +2838,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2855,10 +2854,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2872,10 +2871,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2889,10 +2888,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2906,10 +2905,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2923,10 +2922,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2940,10 +2939,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2957,10 +2956,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2974,10 +2973,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -2991,10 +2990,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3008,10 +3007,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3025,10 +3024,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3042,10 +3041,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3061,23 +3060,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -3085,269 +3085,279 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10244</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2">
+      <c r="E2" s="17"/>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>10245</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3">
+      <c r="E3" s="17"/>
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>10246</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4">
+      <c r="E4" s="17"/>
+      <c r="F4">
         <v>48</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10247</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5">
+      <c r="E5" s="17"/>
+      <c r="F5">
         <v>99</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>10248</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6">
+      <c r="E6" s="17"/>
+      <c r="F6">
         <v>198</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10249</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7">
+      <c r="E7" s="17"/>
+      <c r="F7">
         <v>298</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10250</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8">
+      <c r="E8" s="17"/>
+      <c r="F8">
         <v>398</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="24" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>10251</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9">
+      <c r="E9" s="17"/>
+      <c r="F9">
         <v>498</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10252</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10">
+      <c r="E10" s="17"/>
+      <c r="F10">
         <v>598</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10253</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11">
+      <c r="E11" s="17"/>
+      <c r="F11">
         <v>698</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>10411</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12">
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12">
         <v>798</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>10412</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="E13">
+      <c r="C13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13">
         <v>898</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>390</v>
+      <c r="G13" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3770,10 +3780,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3799,10 +3809,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3828,10 +3838,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3857,10 +3867,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3886,10 +3896,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3918,7 +3928,7 @@
         <v>270</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3947,7 +3957,7 @@
         <v>271</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3976,7 +3986,7 @@
         <v>272</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4005,7 +4015,7 @@
         <v>273</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4031,10 +4041,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4060,10 +4070,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4089,10 +4099,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4108,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4132,7 +4142,7 @@
         <v>340</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4228,7 +4238,7 @@
         <v>296</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>299</v>
@@ -4254,7 +4264,7 @@
         <v>294</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>291</v>
@@ -4280,16 +4290,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>301</v>
@@ -4309,16 +4319,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>289</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>304</v>
@@ -4338,16 +4348,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>303</v>
@@ -4367,16 +4377,16 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>291</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>302</v>
@@ -4926,7 +4936,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B8"/>
+      <selection activeCell="C13" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5090,7 +5100,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -1190,10 +1190,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>desc|</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1367,10 +1363,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"8万金币","水滴*1","玩具锤*1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1532,19 +1524,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"10万小游戏币","太阳*2","木锤*1"</t>
-  </si>
-  <si>
-    <t>"30万小游戏币","太阳*6","木锤*2"</t>
-  </si>
-  <si>
-    <t>"66万小游戏币","太阳*10","木锤*3"</t>
-  </si>
-  <si>
-    <t>"100万小游戏币","太阳*15","木锤*5"</t>
-  </si>
-  <si>
     <t>cpl_notcjj</t>
+  </si>
+  <si>
+    <t>"小游戏币","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万","太阳*2","木锤*1"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万","太阳*6","木锤*2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万","太阳*10","木锤*3"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万","太阳*15","木锤*5"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2091,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2838,10 +2842,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2854,10 +2858,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2871,10 +2875,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2888,10 +2892,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2905,10 +2909,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2922,10 +2926,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2939,10 +2943,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2956,10 +2960,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2973,10 +2977,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -2990,10 +2994,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3007,10 +3011,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3024,10 +3028,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3041,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3062,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3085,7 +3089,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3322,19 +3326,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3345,19 +3349,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3394,7 +3398,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3423,7 +3427,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3452,7 +3456,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3481,7 +3485,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3510,7 +3514,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3539,7 +3543,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3568,7 +3572,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3597,7 +3601,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3626,7 +3630,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3655,7 +3659,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3684,7 +3688,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3713,7 +3717,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3742,7 +3746,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3771,7 +3775,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3780,10 +3784,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3800,7 +3804,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3809,10 +3813,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3829,7 +3833,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3838,10 +3842,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3858,7 +3862,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3867,10 +3871,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3887,7 +3891,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3896,10 +3900,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3916,7 +3920,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3928,7 +3932,7 @@
         <v>270</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3945,7 +3949,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3957,7 +3961,7 @@
         <v>271</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3974,7 +3978,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -3986,7 +3990,7 @@
         <v>272</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4003,7 +4007,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4015,7 +4019,7 @@
         <v>273</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4032,7 +4036,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4041,10 +4045,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4061,7 +4065,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4070,10 +4074,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4090,7 +4094,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4099,10 +4103,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4118,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4127,7 +4131,7 @@
     <col min="5" max="5" width="54.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4139,10 +4143,10 @@
         <v>297</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4157,7 +4161,7 @@
         <v>298</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4168,7 +4172,7 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
@@ -4183,10 +4187,10 @@
         <v>290</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4197,7 +4201,7 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
@@ -4212,10 +4216,10 @@
         <v>289</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4226,7 +4230,7 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
@@ -4238,13 +4242,13 @@
         <v>296</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4255,7 +4259,7 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -4264,16 +4268,16 @@
         <v>294</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>291</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4284,25 +4288,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4313,25 +4317,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>289</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4342,25 +4346,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4371,25 +4375,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>291</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4419,6 +4423,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4936,7 +4941,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A12:C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5133,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5150,13 +5155,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5167,13 +5172,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5184,13 +5189,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5201,10 +5206,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5218,13 +5223,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5235,13 +5240,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5252,13 +5257,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5269,13 +5274,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5289,10 +5294,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5306,10 +5311,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5323,10 +5328,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5340,10 +5345,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5357,10 +5362,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5374,10 +5379,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5701,7 +5706,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -1302,9 +1302,6 @@
     <t>黄金幸运珠</t>
   </si>
   <si>
-    <t>华为荣耀平板</t>
-  </si>
-  <si>
     <t>vivo  X50</t>
   </si>
   <si>
@@ -1527,10 +1524,6 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>"小游戏币","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"小游戏币","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1549,6 +1542,14 @@
   <si>
     <t>"100万","太阳*15","木锤*5"</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀平板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2095,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2842,10 +2843,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2858,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2875,10 +2876,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2892,10 +2893,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2909,10 +2910,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2926,10 +2927,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2943,10 +2944,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2960,10 +2961,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2977,10 +2978,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -2994,10 +2995,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3011,10 +3012,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3028,10 +3029,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3045,10 +3046,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3089,7 +3090,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3326,19 +3327,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3349,19 +3350,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3390,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3398,7 +3399,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3427,7 +3428,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3456,7 +3457,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3485,7 +3486,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3514,7 +3515,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3543,7 +3544,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3572,7 +3573,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3601,7 +3602,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3630,7 +3631,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3659,7 +3660,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3688,7 +3689,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3717,7 +3718,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3746,7 +3747,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3775,7 +3776,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3784,10 +3785,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3804,7 +3805,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3813,10 +3814,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3833,7 +3834,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3842,10 +3843,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3862,7 +3863,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3871,10 +3872,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3891,7 +3892,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3900,10 +3901,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3920,7 +3921,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3932,7 +3933,7 @@
         <v>270</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3949,7 +3950,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3961,7 +3962,7 @@
         <v>271</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3978,7 +3979,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -3990,7 +3991,7 @@
         <v>272</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4007,7 +4008,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4019,7 +4020,7 @@
         <v>273</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4036,7 +4037,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4045,10 +4046,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4065,7 +4066,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4074,10 +4075,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4094,7 +4095,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4103,10 +4104,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4122,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4143,10 +4144,10 @@
         <v>297</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4172,7 +4173,7 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
@@ -4187,7 +4188,7 @@
         <v>290</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>300</v>
@@ -4201,7 +4202,7 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
@@ -4216,7 +4217,7 @@
         <v>289</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>303</v>
@@ -4230,7 +4231,7 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
@@ -4242,10 +4243,10 @@
         <v>296</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>302</v>
@@ -4259,7 +4260,7 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -4268,13 +4269,13 @@
         <v>294</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>291</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>301</v>
@@ -4288,22 +4289,22 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>300</v>
@@ -4317,22 +4318,22 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>289</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>303</v>
@@ -4346,22 +4347,22 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>302</v>
@@ -4375,22 +4376,22 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>291</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>301</v>
@@ -5104,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5138,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>318</v>
@@ -5155,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>319</v>
@@ -5172,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>320</v>
@@ -5189,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>321</v>
@@ -5206,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>322</v>
@@ -5223,7 +5224,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>323</v>
@@ -5240,7 +5241,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>324</v>
@@ -5257,7 +5258,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>325</v>
@@ -5274,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>326</v>
@@ -5345,7 +5346,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>315</v>
@@ -5362,7 +5363,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>316</v>
@@ -5379,7 +5380,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>317</v>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="398">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -988,9 +988,6 @@
     <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>每日最多可参加排名挑战赛4次</t>
   </si>
   <si>
@@ -1437,10 +1434,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;70次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>享受vip10所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1555,10 +1548,24 @@
     <t>cpl_notcjj_notcps</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#C86715&gt;800万&lt;/color&gt;福利券</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#C86715&gt;1200万&lt;/color&gt;福利券</t>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;800万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;1200万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2074,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -2099,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2173,10 +2180,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -2192,10 +2199,10 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="5"/>
@@ -2243,10 +2250,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -2262,10 +2269,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="21"/>
@@ -2281,10 +2288,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="21"/>
@@ -2330,10 +2337,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
@@ -2349,10 +2356,10 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="21"/>
@@ -2398,10 +2405,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -2417,10 +2424,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="21"/>
@@ -2436,10 +2443,10 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="21"/>
@@ -2503,10 +2510,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -2522,10 +2529,10 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="21"/>
@@ -2572,10 +2579,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
@@ -2591,7 +2598,7 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>237</v>
@@ -2642,10 +2649,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
@@ -2661,7 +2668,7 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>237</v>
@@ -2712,10 +2719,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
@@ -2731,7 +2738,7 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>237</v>
@@ -2782,10 +2789,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
@@ -2801,7 +2808,7 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>237</v>
@@ -2820,7 +2827,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="22"/>
@@ -2852,10 +2859,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2868,10 +2875,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2885,10 +2892,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2902,10 +2909,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2919,10 +2926,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2936,10 +2943,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2953,10 +2960,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2970,10 +2977,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2987,10 +2994,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -3004,10 +3011,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3021,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>396</v>
@@ -3038,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3055,10 +3062,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3099,7 +3106,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3133,10 +3140,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3154,10 +3161,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3175,10 +3182,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3196,10 +3203,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3217,10 +3224,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3238,10 +3245,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3259,10 +3266,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3280,10 +3287,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3301,10 +3308,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3322,10 +3329,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3336,19 +3343,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3359,19 +3366,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3406,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3408,7 +3415,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3437,7 +3444,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3466,7 +3473,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3495,7 +3502,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3524,7 +3531,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3553,7 +3560,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3582,7 +3589,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3611,7 +3618,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3640,7 +3647,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3669,7 +3676,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3698,7 +3705,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3727,7 +3734,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3756,7 +3763,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3785,7 +3792,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3794,10 +3801,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3814,7 +3821,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3823,10 +3830,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3843,7 +3850,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3852,10 +3859,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3872,7 +3879,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3881,10 +3888,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3901,7 +3908,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3910,10 +3917,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3930,7 +3937,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3939,10 +3946,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3959,7 +3966,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3968,10 +3975,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3988,7 +3995,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -3997,10 +4004,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4017,7 +4024,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4026,10 +4033,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4046,7 +4053,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4055,10 +4062,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4075,7 +4082,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4084,10 +4091,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4104,7 +4111,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4113,10 +4120,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4150,13 +4157,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4168,10 +4175,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4182,25 +4189,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4211,25 +4218,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4240,25 +4247,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4269,25 +4276,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4298,25 +4305,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4327,25 +4334,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4356,25 +4363,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4385,25 +4392,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5148,13 +5155,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5165,13 +5172,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5182,13 +5189,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5199,13 +5206,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5216,10 +5223,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5233,13 +5240,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5250,13 +5257,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5267,13 +5274,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5284,13 +5291,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5304,10 +5311,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5321,10 +5328,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5338,10 +5345,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5355,10 +5362,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5372,10 +5379,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5389,10 +5396,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1877,10 +1877,6 @@
   </si>
   <si>
     <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300","ty_icon_rlts"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"闪耀风暴","兑换特权","兑换特权","兑换特权","容量提升","寒霜“</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1931,6 +1927,10 @@
   </si>
   <si>
     <t>"ty_icon_pt_02","ty_icon_zfbhb5","ty_icon_jdek20","ty_icon_hf50","ty_icon_rlts","ty_icon_dz_03"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪耀风暴","兑换特权","兑换特权","兑换特权","容量提升","寒霜"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5058,7 +5058,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5113,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>441</v>
@@ -5130,13 +5130,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
         <v>442</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="469">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1932,6 +1932,26 @@
   <si>
     <t>"闪耀风暴","兑换特权","兑换特权","兑换特权","容量提升","寒霜"</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_042_xshb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_cqg","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_042_xshb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gotoShop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2108,7 +2128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2196,6 +2216,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2475,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" activeCellId="1" sqref="H41 I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2488,10 +2511,11 @@
     <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -2513,11 +2537,14 @@
       <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2535,8 +2562,9 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2554,8 +2582,9 @@
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2573,8 +2602,9 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2592,8 +2622,9 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2610,9 +2641,12 @@
         <v>390</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2630,8 +2664,11 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2648,9 +2685,12 @@
         <v>391</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2668,8 +2708,9 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2687,8 +2728,9 @@
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2706,8 +2748,9 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2725,8 +2768,9 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2744,8 +2788,9 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2762,9 +2807,12 @@
         <v>395</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2781,9 +2829,12 @@
         <v>396</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2801,8 +2852,11 @@
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2820,8 +2874,9 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2839,8 +2894,9 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2858,8 +2914,9 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2877,8 +2934,9 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2896,8 +2954,9 @@
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2915,8 +2974,9 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2934,7 +2994,7 @@
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2952,7 +3012,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2969,9 +3029,12 @@
         <v>404</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2989,8 +3052,11 @@
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3008,8 +3074,9 @@
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3027,8 +3094,9 @@
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3046,8 +3114,9 @@
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3065,7 +3134,7 @@
       </c>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3083,7 +3152,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3100,9 +3169,12 @@
         <v>409</v>
       </c>
       <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3120,8 +3192,11 @@
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3139,8 +3214,9 @@
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3158,8 +3234,9 @@
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3177,8 +3254,9 @@
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3196,8 +3274,9 @@
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3215,8 +3294,9 @@
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3234,8 +3314,9 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3253,8 +3334,9 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3272,8 +3354,11 @@
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3291,8 +3376,9 @@
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3310,8 +3396,9 @@
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3329,8 +3416,9 @@
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3348,7 +3436,7 @@
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3366,8 +3454,9 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3385,8 +3474,9 @@
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3404,8 +3494,9 @@
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3423,8 +3514,9 @@
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3442,8 +3534,9 @@
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3461,8 +3554,9 @@
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3480,8 +3574,9 @@
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3499,8 +3594,9 @@
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3518,8 +3614,9 @@
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="21"/>
-    </row>
-    <row r="55" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3537,8 +3634,9 @@
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3556,8 +3654,9 @@
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3575,8 +3674,9 @@
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3594,8 +3694,9 @@
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="27"/>
-    </row>
-    <row r="59" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3613,8 +3714,9 @@
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3632,8 +3734,9 @@
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3651,8 +3754,9 @@
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3670,8 +3774,9 @@
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
-    </row>
-    <row r="63" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3689,8 +3794,9 @@
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="27"/>
-    </row>
-    <row r="64" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3708,8 +3814,9 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3727,8 +3834,9 @@
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3746,8 +3854,9 @@
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3765,8 +3874,9 @@
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
-    </row>
-    <row r="68" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3784,8 +3894,9 @@
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3802,7 +3913,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3819,7 +3930,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3836,7 +3947,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3853,7 +3964,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3870,7 +3981,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3887,7 +3998,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3904,7 +4015,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3921,7 +4032,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3938,7 +4049,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3955,7 +4066,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3972,7 +4083,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5057,7 +5168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="472">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1781,14 +1781,6 @@
   </si>
   <si>
     <t>"容量提升",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"至尊礼包",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"至尊礼包",</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1826,41 +1818,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"福利券容量提升"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_rlts",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_zzlb",</t>
-    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1952,6 +1910,34 @@
   <si>
     <t>gotoShop</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包","容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包","容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zzlb","ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zzlb","ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包","福利券容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2500,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I24" activeCellId="1" sqref="H41 I24"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +2524,7 @@
         <v>63</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>65</v>
@@ -2642,7 +2628,7 @@
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H6" s="27"/>
     </row>
@@ -2686,7 +2672,7 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -2808,7 +2794,7 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -2830,7 +2816,7 @@
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H15" s="27"/>
     </row>
@@ -3030,7 +3016,7 @@
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H25" s="27"/>
     </row>
@@ -3170,7 +3156,7 @@
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H32" s="27"/>
     </row>
@@ -5168,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5213,7 +5199,7 @@
         <v>445</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,13 +5210,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>441</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5241,13 +5227,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,7 +5250,7 @@
         <v>442</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5281,7 +5267,7 @@
         <v>443</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,13 +5278,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>446</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5309,13 +5295,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>447</v>
       </c>
       <c r="E8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5326,13 +5312,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,13 +5329,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>447</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5360,13 +5346,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5377,13 +5363,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5394,13 +5380,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/vip2_config.xlsx
+++ b/config_debug/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="471">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -989,18 +989,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
     <t>cjj_vip_desc</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1209,75 +1197,6 @@
   <si>
     <t>cpl_cjj</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"8万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"18万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"28万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"38万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"48万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"88万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"128万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"188万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"288万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"388万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"588万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_18y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
   </si>
   <si>
     <t>vip</t>
@@ -1945,6 +1864,61 @@
   <si>
     <t>"9888万","200000","40",</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"18万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"28万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"38万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"48万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"88万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"128万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"188万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"288万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"388万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"488万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"588万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_2","com_award_icon_cz1",</t>
   </si>
 </sst>
 </file>
@@ -2525,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>65</v>
@@ -2548,10 +2522,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="5"/>
@@ -2568,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>237</v>
@@ -2588,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>225</v>
@@ -2611,7 +2585,7 @@
         <v>240</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -2631,11 +2605,11 @@
         <v>240</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="H6" s="27"/>
     </row>
@@ -2653,7 +2627,7 @@
         <v>240</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
@@ -2675,11 +2649,11 @@
         <v>240</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -2697,7 +2671,7 @@
         <v>240</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -2717,7 +2691,7 @@
         <v>240</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
@@ -2734,10 +2708,10 @@
         <v>200</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="5"/>
@@ -2754,10 +2728,10 @@
         <v>200</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
@@ -2774,7 +2748,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>226</v>
@@ -2794,14 +2768,14 @@
         <v>200</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -2819,11 +2793,11 @@
         <v>240</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="H15" s="27"/>
     </row>
@@ -2841,7 +2815,7 @@
         <v>240</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -2863,7 +2837,7 @@
         <v>240</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
@@ -2883,7 +2857,7 @@
         <v>240</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -2903,7 +2877,7 @@
         <v>240</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
@@ -2923,7 +2897,7 @@
         <v>240</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
@@ -2943,7 +2917,7 @@
         <v>244</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
@@ -2960,10 +2934,10 @@
         <v>500</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="21"/>
@@ -2980,10 +2954,10 @@
         <v>500</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -2998,7 +2972,7 @@
         <v>500</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>227</v>
@@ -3019,11 +2993,11 @@
         <v>240</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="27" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="H25" s="27"/>
     </row>
@@ -3041,7 +3015,7 @@
         <v>240</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
@@ -3063,7 +3037,7 @@
         <v>240</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
@@ -3083,7 +3057,7 @@
         <v>240</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
@@ -3100,10 +3074,10 @@
         <v>1000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="21"/>
@@ -3120,7 +3094,7 @@
         <v>1000</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>238</v>
@@ -3138,7 +3112,7 @@
         <v>1000</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>228</v>
@@ -3159,11 +3133,11 @@
         <v>240</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="H32" s="27"/>
     </row>
@@ -3181,7 +3155,7 @@
         <v>240</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
@@ -3203,7 +3177,7 @@
         <v>240</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
@@ -3223,7 +3197,7 @@
         <v>240</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
@@ -3243,7 +3217,7 @@
         <v>244</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="27"/>
@@ -3260,10 +3234,10 @@
         <v>2000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="21"/>
@@ -3280,10 +3254,10 @@
         <v>2000</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="22"/>
@@ -3300,7 +3274,7 @@
         <v>2000</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>229</v>
@@ -3320,7 +3294,7 @@
         <v>2000</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>230</v>
@@ -3343,7 +3317,7 @@
         <v>240</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
@@ -3362,10 +3336,10 @@
         <v>2000</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
@@ -3382,10 +3356,10 @@
         <v>2000</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
@@ -3402,10 +3376,10 @@
         <v>5000</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="21"/>
@@ -3422,10 +3396,10 @@
         <v>5000</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F45" s="15"/>
     </row>
@@ -3440,7 +3414,7 @@
         <v>5000</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>231</v>
@@ -3463,7 +3437,7 @@
         <v>241</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="27"/>
@@ -3483,7 +3457,7 @@
         <v>240</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="27"/>
@@ -3500,7 +3474,7 @@
         <v>10000</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>236</v>
@@ -3520,10 +3494,10 @@
         <v>10000</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="22"/>
@@ -3540,7 +3514,7 @@
         <v>10000</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>232</v>
@@ -3563,7 +3537,7 @@
         <v>242</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="27"/>
@@ -3583,7 +3557,7 @@
         <v>240</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="27"/>
@@ -3600,7 +3574,7 @@
         <v>20000</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>236</v>
@@ -3620,10 +3594,10 @@
         <v>20000</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="22"/>
@@ -3640,7 +3614,7 @@
         <v>20000</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>233</v>
@@ -3663,7 +3637,7 @@
         <v>240</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="27"/>
@@ -3683,7 +3657,7 @@
         <v>240</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="27"/>
@@ -3700,7 +3674,7 @@
         <v>30000</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>236</v>
@@ -3720,10 +3694,10 @@
         <v>30000</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="22"/>
@@ -3740,7 +3714,7 @@
         <v>30000</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>234</v>
@@ -3763,7 +3737,7 @@
         <v>243</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
@@ -3783,7 +3757,7 @@
         <v>240</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="27"/>
@@ -3800,7 +3774,7 @@
         <v>50000</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>236</v>
@@ -3820,10 +3794,10 @@
         <v>50000</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="22"/>
@@ -3840,7 +3814,7 @@
         <v>50000</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>235</v>
@@ -3860,10 +3834,10 @@
         <v>50000</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -3883,7 +3857,7 @@
         <v>240</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -3897,10 +3871,10 @@
         <v>11</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F69" s="1">
         <v>15000</v>
@@ -3914,10 +3888,10 @@
         <v>11</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="F70" s="1">
         <v>15000</v>
@@ -3931,10 +3905,10 @@
         <v>11</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="F71" s="1">
         <v>15000</v>
@@ -3948,10 +3922,10 @@
         <v>11</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="F72" s="1">
         <v>15000</v>
@@ -3965,10 +3939,10 @@
         <v>11</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F73" s="1">
         <v>15000</v>
@@ -3982,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="F74" s="1">
         <v>15000</v>
@@ -3999,10 +3973,10 @@
         <v>12</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="F75" s="1">
         <v>40000</v>
@@ -4016,10 +3990,10 @@
         <v>12</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="F76" s="1">
         <v>40000</v>
@@ -4033,10 +4007,10 @@
         <v>12</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="F77" s="1">
         <v>40000</v>
@@ -4050,10 +4024,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="F78" s="1">
         <v>40000</v>
@@ -4067,10 +4041,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="F79" s="1">
         <v>40000</v>
@@ -4084,10 +4058,10 @@
         <v>12</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="F80" s="1">
         <v>40000</v>
@@ -4105,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4128,7 +4102,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -4162,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4183,10 +4157,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4204,10 +4178,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4225,10 +4199,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4246,10 +4220,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4267,10 +4241,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4288,10 +4262,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4309,10 +4283,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4330,10 +4304,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4351,10 +4325,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4365,19 +4339,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -4388,19 +4362,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4413,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4428,7 +4402,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -4437,7 +4411,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -4466,10 +4440,10 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="F2" s="17">
         <v>500000</v>
@@ -4495,7 +4469,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -4524,7 +4498,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -4553,7 +4527,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -4582,7 +4556,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -4611,7 +4585,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -4640,7 +4614,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -4669,7 +4643,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -4698,7 +4672,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -4727,7 +4701,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -4756,7 +4730,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -4785,7 +4759,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -4814,7 +4788,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -4823,10 +4797,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4843,7 +4817,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -4852,10 +4826,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -4872,7 +4846,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -4881,10 +4855,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -4901,7 +4875,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -4910,10 +4884,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>305</v>
+        <v>456</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -4930,7 +4904,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -4939,10 +4913,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>306</v>
+        <v>457</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -4959,7 +4933,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -4968,10 +4942,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>307</v>
+        <v>458</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -4988,7 +4962,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -4997,10 +4971,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>308</v>
+        <v>459</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -5017,7 +4991,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -5026,10 +5000,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>247</v>
+        <v>437</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>309</v>
+        <v>460</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5046,7 +5020,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -5055,10 +5029,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>310</v>
+        <v>461</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -5075,7 +5049,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -5084,10 +5058,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>311</v>
+        <v>462</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -5104,7 +5078,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -5113,10 +5087,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>319</v>
+        <v>439</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>312</v>
+        <v>463</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -5133,7 +5107,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -5142,10 +5116,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>313</v>
+        <v>464</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -5176,19 +5150,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="F1" s="29"/>
     </row>
@@ -5200,13 +5174,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5217,13 +5191,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5234,13 +5208,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5251,13 +5225,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5268,13 +5242,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5285,13 +5259,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5302,13 +5276,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5319,13 +5293,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5336,13 +5310,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5353,13 +5327,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5370,13 +5344,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5387,13 +5361,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5425,13 +5399,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -5443,10 +5417,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5457,25 +5431,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5486,25 +5460,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5515,25 +5489,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5544,25 +5518,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5573,25 +5547,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5602,25 +5576,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5631,25 +5605,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5660,25 +5634,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6423,13 +6397,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6440,13 +6414,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6457,13 +6431,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6474,13 +6448,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6491,10 +6465,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -6508,13 +6482,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6525,13 +6499,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6542,13 +6516,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6559,13 +6533,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6579,10 +6553,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6596,10 +6570,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6613,10 +6587,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6630,10 +6604,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6647,10 +6621,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6664,10 +6638,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E16">
         <v>1</v>
